--- a/Document/02_개발스케줄표_ver0.27.xlsx
+++ b/Document/02_개발스케줄표_ver0.27.xlsx
@@ -210,15 +210,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교통안전지수 분석 - 실시간 갱신 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교통안전지수 시각화 - 도로 선택 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>교통안전지수 시각화 페이지 UI/UX 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통안전지수 분석 - 실시간 갱신 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1281,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1579,10 +1579,601 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="30" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="30" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="29" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="26" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="26" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,617 +2194,35 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="30" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="30" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="29" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="26" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="26" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2487,7 +2496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2498,10 +2507,10 @@
   <dimension ref="A1:CA70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BP64" sqref="BP64"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2519,114 +2528,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="304" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="298" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="101">
+      <c r="H1" s="298">
         <v>2024.07</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101">
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="298"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298">
         <v>2024.08</v>
       </c>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="101"/>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="101"/>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="106">
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="298"/>
+      <c r="AK1" s="298"/>
+      <c r="AL1" s="298"/>
+      <c r="AM1" s="298"/>
+      <c r="AN1" s="298"/>
+      <c r="AO1" s="298"/>
+      <c r="AP1" s="298"/>
+      <c r="AQ1" s="298"/>
+      <c r="AR1" s="298"/>
+      <c r="AS1" s="298"/>
+      <c r="AT1" s="298"/>
+      <c r="AU1" s="298"/>
+      <c r="AV1" s="298"/>
+      <c r="AW1" s="298"/>
+      <c r="AX1" s="298"/>
+      <c r="AY1" s="298"/>
+      <c r="AZ1" s="298"/>
+      <c r="BA1" s="298"/>
+      <c r="BB1" s="298"/>
+      <c r="BC1" s="298"/>
+      <c r="BD1" s="298"/>
+      <c r="BE1" s="298"/>
+      <c r="BF1" s="302"/>
+      <c r="BG1" s="303">
         <v>2024.09</v>
       </c>
-      <c r="BH1" s="106"/>
-      <c r="BI1" s="106"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="106"/>
-      <c r="BL1" s="106"/>
-      <c r="BM1" s="106"/>
-      <c r="BN1" s="106"/>
-      <c r="BO1" s="106"/>
-      <c r="BP1" s="106"/>
-      <c r="BQ1" s="106"/>
-      <c r="BR1" s="106"/>
-      <c r="BS1" s="106"/>
-      <c r="BT1" s="106"/>
-      <c r="BU1" s="106"/>
-      <c r="BV1" s="106"/>
-      <c r="BW1" s="106"/>
-      <c r="BX1" s="106"/>
-      <c r="BY1" s="106"/>
-      <c r="BZ1" s="106"/>
-      <c r="CA1" s="106"/>
+      <c r="BH1" s="303"/>
+      <c r="BI1" s="303"/>
+      <c r="BJ1" s="303"/>
+      <c r="BK1" s="303"/>
+      <c r="BL1" s="303"/>
+      <c r="BM1" s="303"/>
+      <c r="BN1" s="303"/>
+      <c r="BO1" s="303"/>
+      <c r="BP1" s="303"/>
+      <c r="BQ1" s="303"/>
+      <c r="BR1" s="303"/>
+      <c r="BS1" s="303"/>
+      <c r="BT1" s="303"/>
+      <c r="BU1" s="303"/>
+      <c r="BV1" s="303"/>
+      <c r="BW1" s="303"/>
+      <c r="BX1" s="303"/>
+      <c r="BY1" s="303"/>
+      <c r="BZ1" s="303"/>
+      <c r="CA1" s="303"/>
     </row>
     <row r="2" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="104"/>
+      <c r="A2" s="305"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="301"/>
       <c r="H2" s="42">
         <v>11</v>
       </c>
@@ -2845,10 +2854,10 @@
       </c>
     </row>
     <row r="3" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="285" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="16">
@@ -2866,15 +2875,15 @@
       <c r="G3" s="16">
         <v>8</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="12"/>
       <c r="S3" s="11"/>
@@ -2940,8 +2949,8 @@
       <c r="CA3" s="47"/>
     </row>
     <row r="4" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="294"/>
+      <c r="B4" s="295"/>
       <c r="C4" s="17">
         <v>2</v>
       </c>
@@ -2965,8 +2974,8 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
       <c r="R4" s="8"/>
       <c r="S4" s="34"/>
       <c r="T4" s="7"/>
@@ -3031,10 +3040,10 @@
       <c r="CA4" s="49"/>
     </row>
     <row r="5" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="283" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="17">
@@ -3126,8 +3135,8 @@
       <c r="CA5" s="49"/>
     </row>
     <row r="6" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="114"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="281"/>
+      <c r="B6" s="284"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -3156,8 +3165,8 @@
       <c r="R6" s="8"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="118"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="287"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="8"/>
@@ -3217,8 +3226,8 @@
       <c r="CA6" s="49"/>
     </row>
     <row r="7" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="285"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -3249,8 +3258,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="118"/>
+      <c r="W7" s="286"/>
+      <c r="X7" s="287"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -3308,10 +3317,10 @@
       <c r="CA7" s="49"/>
     </row>
     <row r="8" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="291" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="18">
@@ -3349,8 +3358,8 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="126"/>
+      <c r="AB8" s="274"/>
+      <c r="AC8" s="275"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
@@ -3403,8 +3412,8 @@
       <c r="CA8" s="49"/>
     </row>
     <row r="9" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="289"/>
+      <c r="B9" s="292"/>
       <c r="C9" s="18">
         <v>7</v>
       </c>
@@ -3442,11 +3451,11 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="128"/>
+      <c r="AD9" s="276"/>
+      <c r="AE9" s="277"/>
       <c r="AF9" s="8"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="128"/>
+      <c r="AG9" s="276"/>
+      <c r="AH9" s="277"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
@@ -3494,8 +3503,8 @@
       <c r="CA9" s="49"/>
     </row>
     <row r="10" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="123"/>
+      <c r="A10" s="289"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="18">
         <v>9</v>
       </c>
@@ -3538,8 +3547,8 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="130"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="169"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="8"/>
@@ -3585,8 +3594,8 @@
       <c r="CA10" s="49"/>
     </row>
     <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="289"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="18">
         <v>8</v>
       </c>
@@ -3631,8 +3640,8 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="131"/>
-      <c r="AL11" s="132"/>
+      <c r="AK11" s="278"/>
+      <c r="AL11" s="279"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="40"/>
       <c r="AO11" s="7"/>
@@ -3676,8 +3685,8 @@
       <c r="CA11" s="49"/>
     </row>
     <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="290"/>
+      <c r="B12" s="293"/>
       <c r="C12" s="18">
         <v>10</v>
       </c>
@@ -3726,8 +3735,8 @@
       <c r="AL12" s="9"/>
       <c r="AM12" s="8"/>
       <c r="AN12" s="9"/>
-      <c r="AO12" s="133"/>
-      <c r="AP12" s="134"/>
+      <c r="AO12" s="266"/>
+      <c r="AP12" s="267"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
@@ -3767,10 +3776,10 @@
       <c r="CA12" s="49"/>
     </row>
     <row r="13" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="270" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="27">
@@ -3806,8 +3815,8 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="140"/>
+      <c r="Z13" s="272"/>
+      <c r="AA13" s="273"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -3862,8 +3871,8 @@
       <c r="CA13" s="49"/>
     </row>
     <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="269"/>
+      <c r="B14" s="271"/>
       <c r="C14" s="27">
         <v>12</v>
       </c>
@@ -3914,9 +3923,9 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="141"/>
-      <c r="AR14" s="142"/>
-      <c r="AS14" s="143"/>
+      <c r="AQ14" s="188"/>
+      <c r="AR14" s="189"/>
+      <c r="AS14" s="190"/>
       <c r="AT14" s="10"/>
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
@@ -3953,10 +3962,10 @@
       <c r="CA14" s="49"/>
     </row>
     <row r="15" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="259" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="3">
@@ -4013,8 +4022,8 @@
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="10"/>
-      <c r="AU15" s="150"/>
-      <c r="AV15" s="151"/>
+      <c r="AU15" s="262"/>
+      <c r="AV15" s="263"/>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
@@ -4048,8 +4057,8 @@
       <c r="CA15" s="49"/>
     </row>
     <row r="16" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="257"/>
+      <c r="B16" s="260"/>
       <c r="C16" s="3">
         <v>15</v>
       </c>
@@ -4105,8 +4114,8 @@
       <c r="AS16" s="9"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="9"/>
-      <c r="AV16" s="152"/>
-      <c r="AW16" s="153"/>
+      <c r="AV16" s="198"/>
+      <c r="AW16" s="199"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
       <c r="AZ16" s="9"/>
@@ -4139,8 +4148,8 @@
       <c r="CA16" s="49"/>
     </row>
     <row r="17" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="257"/>
+      <c r="B17" s="260"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -4198,8 +4207,8 @@
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
-      <c r="AX17" s="154"/>
-      <c r="AY17" s="155"/>
+      <c r="AX17" s="264"/>
+      <c r="AY17" s="265"/>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="10"/>
       <c r="BB17" s="9"/>
@@ -4230,8 +4239,8 @@
       <c r="CA17" s="49"/>
     </row>
     <row r="18" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
-      <c r="B18" s="148"/>
+      <c r="A18" s="257"/>
+      <c r="B18" s="260"/>
       <c r="C18" s="3">
         <v>17</v>
       </c>
@@ -4293,9 +4302,9 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="41"/>
       <c r="BA18" s="10"/>
-      <c r="BB18" s="156"/>
-      <c r="BC18" s="157"/>
-      <c r="BD18" s="158"/>
+      <c r="BB18" s="238"/>
+      <c r="BC18" s="239"/>
+      <c r="BD18" s="240"/>
       <c r="BE18" s="9"/>
       <c r="BF18" s="15"/>
       <c r="BG18" s="49"/>
@@ -4321,8 +4330,8 @@
       <c r="CA18" s="49"/>
     </row>
     <row r="19" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="146"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="261"/>
       <c r="C19" s="24">
         <v>18</v>
       </c>
@@ -4387,8 +4396,8 @@
       <c r="BB19" s="22"/>
       <c r="BC19" s="22"/>
       <c r="BD19" s="22"/>
-      <c r="BE19" s="159"/>
-      <c r="BF19" s="160"/>
+      <c r="BE19" s="241"/>
+      <c r="BF19" s="242"/>
       <c r="BG19" s="51"/>
       <c r="BH19" s="52"/>
       <c r="BI19" s="51"/>
@@ -4412,10 +4421,10 @@
       <c r="CA19" s="51"/>
     </row>
     <row r="20" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="245" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="67">
@@ -4507,8 +4516,8 @@
       <c r="CA20" s="47"/>
     </row>
     <row r="21" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
-      <c r="B21" s="164"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="246"/>
       <c r="C21" s="74">
         <v>4</v>
       </c>
@@ -4598,8 +4607,8 @@
       <c r="CA21" s="49"/>
     </row>
     <row r="22" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="164"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="74">
         <v>5</v>
       </c>
@@ -4689,10 +4698,10 @@
       <c r="CA22" s="49"/>
     </row>
     <row r="23" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="248" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="81">
@@ -4784,8 +4793,8 @@
       <c r="CA23" s="47"/>
     </row>
     <row r="24" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165"/>
-      <c r="B24" s="166"/>
+      <c r="A24" s="247"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="81">
         <v>7</v>
       </c>
@@ -4816,8 +4825,8 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="167"/>
-      <c r="X24" s="168"/>
+      <c r="W24" s="249"/>
+      <c r="X24" s="250"/>
       <c r="Y24" s="77"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -4875,8 +4884,8 @@
       <c r="CA24" s="47"/>
     </row>
     <row r="25" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="165"/>
-      <c r="B25" s="166"/>
+      <c r="A25" s="247"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="81">
         <v>9</v>
       </c>
@@ -4910,10 +4919,10 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="77"/>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="171"/>
+      <c r="Z25" s="251"/>
+      <c r="AA25" s="252"/>
+      <c r="AB25" s="252"/>
+      <c r="AC25" s="253"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="77"/>
@@ -4966,8 +4975,8 @@
       <c r="CA25" s="49"/>
     </row>
     <row r="26" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="165"/>
-      <c r="B26" s="166"/>
+      <c r="A26" s="247"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="81">
         <v>10</v>
       </c>
@@ -5057,8 +5066,8 @@
       <c r="CA26" s="49"/>
     </row>
     <row r="27" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166"/>
+      <c r="A27" s="247"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="81">
         <v>11</v>
       </c>
@@ -5116,8 +5125,8 @@
       <c r="AU27" s="5"/>
       <c r="AV27" s="9"/>
       <c r="AW27" s="9"/>
-      <c r="AX27" s="172"/>
-      <c r="AY27" s="173"/>
+      <c r="AX27" s="254"/>
+      <c r="AY27" s="255"/>
       <c r="AZ27" s="9"/>
       <c r="BA27" s="77"/>
       <c r="BB27" s="9"/>
@@ -5148,10 +5157,10 @@
       <c r="CA27" s="49"/>
     </row>
     <row r="28" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="175" t="s">
+      <c r="B28" s="230" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="86">
@@ -5243,8 +5252,8 @@
       <c r="CA28" s="49"/>
     </row>
     <row r="29" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="174"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="230"/>
       <c r="C29" s="86">
         <v>13</v>
       </c>
@@ -5285,9 +5294,9 @@
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="88"/>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="177"/>
-      <c r="AI29" s="178"/>
+      <c r="AG29" s="231"/>
+      <c r="AH29" s="232"/>
+      <c r="AI29" s="233"/>
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
@@ -5334,10 +5343,10 @@
       <c r="CA29" s="49"/>
     </row>
     <row r="30" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="236" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="91">
@@ -5429,8 +5438,8 @@
       <c r="CA30" s="49"/>
     </row>
     <row r="31" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
-      <c r="B31" s="181"/>
+      <c r="A31" s="234"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="91">
         <v>16</v>
       </c>
@@ -5475,8 +5484,8 @@
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
-      <c r="AK31" s="183"/>
-      <c r="AL31" s="184"/>
+      <c r="AK31" s="216"/>
+      <c r="AL31" s="217"/>
       <c r="AM31" s="88"/>
       <c r="AN31" s="93"/>
       <c r="AO31" s="9"/>
@@ -5520,8 +5529,8 @@
       <c r="CA31" s="49"/>
     </row>
     <row r="32" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179"/>
-      <c r="B32" s="181"/>
+      <c r="A32" s="234"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="91">
         <v>17</v>
       </c>
@@ -5570,8 +5579,8 @@
       <c r="AL32" s="9"/>
       <c r="AM32" s="88"/>
       <c r="AN32" s="9"/>
-      <c r="AO32" s="183"/>
-      <c r="AP32" s="184"/>
+      <c r="AO32" s="216"/>
+      <c r="AP32" s="217"/>
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
       <c r="AS32" s="9"/>
@@ -5611,8 +5620,8 @@
       <c r="CA32" s="49"/>
     </row>
     <row r="33" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="179"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="234"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="91">
         <v>18</v>
       </c>
@@ -5663,8 +5672,8 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
-      <c r="AQ33" s="185"/>
-      <c r="AR33" s="186"/>
+      <c r="AQ33" s="218"/>
+      <c r="AR33" s="219"/>
       <c r="AS33" s="9"/>
       <c r="AT33" s="88"/>
       <c r="AU33" s="9"/>
@@ -5702,8 +5711,8 @@
       <c r="CA33" s="49"/>
     </row>
     <row r="34" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
-      <c r="B34" s="181"/>
+      <c r="A34" s="234"/>
+      <c r="B34" s="236"/>
       <c r="C34" s="91">
         <v>19</v>
       </c>
@@ -5793,8 +5802,8 @@
       <c r="CA34" s="49"/>
     </row>
     <row r="35" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
-      <c r="B35" s="182"/>
+      <c r="A35" s="235"/>
+      <c r="B35" s="237"/>
       <c r="C35" s="96">
         <v>19</v>
       </c>
@@ -5850,8 +5859,8 @@
       <c r="AS35" s="22"/>
       <c r="AT35" s="98"/>
       <c r="AU35" s="22"/>
-      <c r="AV35" s="187"/>
-      <c r="AW35" s="188"/>
+      <c r="AV35" s="220"/>
+      <c r="AW35" s="221"/>
       <c r="AX35" s="22"/>
       <c r="AY35" s="22"/>
       <c r="AZ35" s="22"/>
@@ -5884,10 +5893,10 @@
       <c r="CA35" s="51"/>
     </row>
     <row r="36" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="189" t="s">
+      <c r="A36" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="224" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="55">
@@ -5979,8 +5988,8 @@
       <c r="CA36" s="47"/>
     </row>
     <row r="37" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="190"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="223"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="60">
         <v>4</v>
       </c>
@@ -6008,9 +6017,9 @@
       <c r="Q37" s="49"/>
       <c r="R37" s="50"/>
       <c r="S37" s="49"/>
-      <c r="T37" s="193"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="195"/>
+      <c r="T37" s="226"/>
+      <c r="U37" s="227"/>
+      <c r="V37" s="228"/>
       <c r="W37" s="49"/>
       <c r="X37" s="49"/>
       <c r="Y37" s="50"/>
@@ -6070,8 +6079,8 @@
       <c r="CA37" s="49"/>
     </row>
     <row r="38" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="190"/>
-      <c r="B38" s="192"/>
+      <c r="A38" s="223"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="60">
         <v>5</v>
       </c>
@@ -6102,8 +6111,8 @@
       <c r="T38" s="49"/>
       <c r="U38" s="49"/>
       <c r="V38" s="49"/>
-      <c r="W38" s="193"/>
-      <c r="X38" s="195"/>
+      <c r="W38" s="226"/>
+      <c r="X38" s="228"/>
       <c r="Y38" s="50"/>
       <c r="Z38" s="49"/>
       <c r="AA38" s="49"/>
@@ -6161,10 +6170,10 @@
       <c r="CA38" s="49"/>
     </row>
     <row r="39" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="197" t="s">
+      <c r="B39" s="206" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="63">
@@ -6256,8 +6265,8 @@
       <c r="CA39" s="49"/>
     </row>
     <row r="40" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="196"/>
-      <c r="B40" s="197"/>
+      <c r="A40" s="205"/>
+      <c r="B40" s="206"/>
       <c r="C40" s="63">
         <v>7</v>
       </c>
@@ -6292,11 +6301,11 @@
       <c r="X40" s="49"/>
       <c r="Y40" s="50"/>
       <c r="Z40" s="49"/>
-      <c r="AA40" s="198"/>
-      <c r="AB40" s="199"/>
-      <c r="AC40" s="199"/>
-      <c r="AD40" s="199"/>
-      <c r="AE40" s="200"/>
+      <c r="AA40" s="207"/>
+      <c r="AB40" s="208"/>
+      <c r="AC40" s="208"/>
+      <c r="AD40" s="208"/>
+      <c r="AE40" s="209"/>
       <c r="AF40" s="50"/>
       <c r="AG40" s="49"/>
       <c r="AH40" s="49"/>
@@ -6347,8 +6356,8 @@
       <c r="CA40" s="49"/>
     </row>
     <row r="41" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="196"/>
-      <c r="B41" s="197"/>
+      <c r="A41" s="205"/>
+      <c r="B41" s="206"/>
       <c r="C41" s="63">
         <v>9</v>
       </c>
@@ -6389,9 +6398,9 @@
       <c r="AD41" s="49"/>
       <c r="AE41" s="49"/>
       <c r="AF41" s="50"/>
-      <c r="AG41" s="201"/>
-      <c r="AH41" s="202"/>
-      <c r="AI41" s="203"/>
+      <c r="AG41" s="210"/>
+      <c r="AH41" s="211"/>
+      <c r="AI41" s="212"/>
       <c r="AJ41" s="49"/>
       <c r="AK41" s="49"/>
       <c r="AL41" s="49"/>
@@ -6438,8 +6447,8 @@
       <c r="CA41" s="49"/>
     </row>
     <row r="42" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="196"/>
-      <c r="B42" s="197"/>
+      <c r="A42" s="205"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="63">
         <v>10</v>
       </c>
@@ -6483,12 +6492,12 @@
       <c r="AG42" s="49"/>
       <c r="AH42" s="49"/>
       <c r="AI42" s="49"/>
-      <c r="AJ42" s="204"/>
-      <c r="AK42" s="205"/>
-      <c r="AL42" s="206"/>
+      <c r="AJ42" s="213"/>
+      <c r="AK42" s="214"/>
+      <c r="AL42" s="215"/>
       <c r="AM42" s="50"/>
-      <c r="AN42" s="207"/>
-      <c r="AO42" s="208"/>
+      <c r="AN42" s="200"/>
+      <c r="AO42" s="201"/>
       <c r="AP42" s="49"/>
       <c r="AQ42" s="49"/>
       <c r="AR42" s="49"/>
@@ -6529,8 +6538,8 @@
       <c r="CA42" s="49"/>
     </row>
     <row r="43" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="196"/>
-      <c r="B43" s="197"/>
+      <c r="A43" s="205"/>
+      <c r="B43" s="206"/>
       <c r="C43" s="63">
         <v>11</v>
       </c>
@@ -6580,8 +6589,8 @@
       <c r="AM43" s="50"/>
       <c r="AN43" s="49"/>
       <c r="AO43" s="49"/>
-      <c r="AP43" s="209"/>
-      <c r="AQ43" s="209"/>
+      <c r="AP43" s="202"/>
+      <c r="AQ43" s="202"/>
       <c r="AR43" s="49"/>
       <c r="AS43" s="49"/>
       <c r="AT43" s="50"/>
@@ -6620,10 +6629,10 @@
       <c r="CA43" s="49"/>
     </row>
     <row r="44" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="210" t="s">
+      <c r="A44" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="211" t="s">
+      <c r="B44" s="204" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="27">
@@ -6677,8 +6686,8 @@
       <c r="AO44" s="49"/>
       <c r="AP44" s="49"/>
       <c r="AQ44" s="49"/>
-      <c r="AR44" s="141"/>
-      <c r="AS44" s="143"/>
+      <c r="AR44" s="188"/>
+      <c r="AS44" s="190"/>
       <c r="AT44" s="50"/>
       <c r="AU44" s="49"/>
       <c r="AV44" s="49"/>
@@ -6715,8 +6724,8 @@
       <c r="CA44" s="49"/>
     </row>
     <row r="45" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="210"/>
-      <c r="B45" s="211"/>
+      <c r="A45" s="203"/>
+      <c r="B45" s="204"/>
       <c r="C45" s="27">
         <v>13</v>
       </c>
@@ -6771,9 +6780,9 @@
       <c r="AR45" s="49"/>
       <c r="AS45" s="49"/>
       <c r="AT45" s="50"/>
-      <c r="AU45" s="141"/>
-      <c r="AV45" s="142"/>
-      <c r="AW45" s="143"/>
+      <c r="AU45" s="188"/>
+      <c r="AV45" s="189"/>
+      <c r="AW45" s="190"/>
       <c r="AX45" s="49"/>
       <c r="AY45" s="49"/>
       <c r="AZ45" s="49"/>
@@ -6806,10 +6815,10 @@
       <c r="CA45" s="49"/>
     </row>
     <row r="46" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="214" t="s">
+      <c r="B46" s="193" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="3">
@@ -6869,9 +6878,9 @@
       <c r="AU46" s="49"/>
       <c r="AV46" s="49"/>
       <c r="AW46" s="49"/>
-      <c r="AX46" s="216"/>
-      <c r="AY46" s="217"/>
-      <c r="AZ46" s="218"/>
+      <c r="AX46" s="195"/>
+      <c r="AY46" s="196"/>
+      <c r="AZ46" s="197"/>
       <c r="BA46" s="50"/>
       <c r="BB46" s="49"/>
       <c r="BC46" s="49"/>
@@ -6901,8 +6910,8 @@
       <c r="CA46" s="49"/>
     </row>
     <row r="47" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="212"/>
-      <c r="B47" s="214"/>
+      <c r="A47" s="191"/>
+      <c r="B47" s="193"/>
       <c r="C47" s="3">
         <v>15</v>
       </c>
@@ -6964,8 +6973,8 @@
       <c r="AY47" s="49"/>
       <c r="AZ47" s="49"/>
       <c r="BA47" s="50"/>
-      <c r="BB47" s="152"/>
-      <c r="BC47" s="153"/>
+      <c r="BB47" s="198"/>
+      <c r="BC47" s="199"/>
       <c r="BD47" s="49"/>
       <c r="BE47" s="49"/>
       <c r="BF47" s="62"/>
@@ -6992,8 +7001,8 @@
       <c r="CA47" s="49"/>
     </row>
     <row r="48" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="212"/>
-      <c r="B48" s="214"/>
+      <c r="A48" s="191"/>
+      <c r="B48" s="193"/>
       <c r="C48" s="3">
         <v>16</v>
       </c>
@@ -7057,8 +7066,8 @@
       <c r="BA48" s="50"/>
       <c r="BB48" s="49"/>
       <c r="BC48" s="49"/>
-      <c r="BD48" s="219"/>
-      <c r="BE48" s="220"/>
+      <c r="BD48" s="157"/>
+      <c r="BE48" s="158"/>
       <c r="BF48" s="62"/>
       <c r="BG48" s="49"/>
       <c r="BH48" s="50"/>
@@ -7083,8 +7092,8 @@
       <c r="CA48" s="49"/>
     </row>
     <row r="49" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="212"/>
-      <c r="B49" s="214"/>
+      <c r="A49" s="191"/>
+      <c r="B49" s="193"/>
       <c r="C49" s="3">
         <v>17</v>
       </c>
@@ -7150,8 +7159,8 @@
       <c r="BC49" s="49"/>
       <c r="BD49" s="49"/>
       <c r="BE49" s="49"/>
-      <c r="BF49" s="221"/>
-      <c r="BG49" s="222"/>
+      <c r="BF49" s="175"/>
+      <c r="BG49" s="176"/>
       <c r="BH49" s="50"/>
       <c r="BI49" s="49"/>
       <c r="BJ49" s="49"/>
@@ -7174,8 +7183,8 @@
       <c r="CA49" s="49"/>
     </row>
     <row r="50" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="212"/>
-      <c r="B50" s="214"/>
+      <c r="A50" s="191"/>
+      <c r="B50" s="193"/>
       <c r="C50" s="3">
         <v>18</v>
       </c>
@@ -7244,9 +7253,9 @@
       <c r="BF50" s="62"/>
       <c r="BG50" s="49"/>
       <c r="BH50" s="50"/>
-      <c r="BI50" s="223"/>
-      <c r="BJ50" s="224"/>
-      <c r="BK50" s="225"/>
+      <c r="BI50" s="177"/>
+      <c r="BJ50" s="178"/>
+      <c r="BK50" s="179"/>
       <c r="BL50" s="49"/>
       <c r="BM50" s="49"/>
       <c r="BN50" s="49"/>
@@ -7265,8 +7274,8 @@
       <c r="CA50" s="49"/>
     </row>
     <row r="51" spans="1:79" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="213"/>
-      <c r="B51" s="215"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="194"/>
       <c r="C51" s="24">
         <v>19</v>
       </c>
@@ -7338,8 +7347,8 @@
       <c r="BI51" s="51"/>
       <c r="BJ51" s="51"/>
       <c r="BK51" s="51"/>
-      <c r="BL51" s="226"/>
-      <c r="BM51" s="227"/>
+      <c r="BL51" s="180"/>
+      <c r="BM51" s="181"/>
       <c r="BN51" s="51"/>
       <c r="BO51" s="52"/>
       <c r="BP51" s="51"/>
@@ -7356,73 +7365,73 @@
       <c r="CA51" s="51"/>
     </row>
     <row r="52" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="228" t="s">
+      <c r="A52" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="229" t="s">
+      <c r="B52" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="230">
+      <c r="C52" s="99">
         <v>3</v>
       </c>
-      <c r="D52" s="230" t="s">
+      <c r="D52" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="231">
+      <c r="E52" s="100">
         <v>45495</v>
       </c>
-      <c r="F52" s="231">
+      <c r="F52" s="100">
         <v>45496</v>
       </c>
-      <c r="G52" s="230">
+      <c r="G52" s="99">
         <v>2</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="232"/>
+      <c r="K52" s="101"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="232"/>
-      <c r="S52" s="233"/>
-      <c r="T52" s="234"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="186"/>
+      <c r="T52" s="187"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
-      <c r="Y52" s="232"/>
+      <c r="Y52" s="101"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
-      <c r="AF52" s="232"/>
+      <c r="AF52" s="101"/>
       <c r="AG52" s="11"/>
       <c r="AH52" s="11"/>
       <c r="AI52" s="11"/>
       <c r="AJ52" s="11"/>
       <c r="AK52" s="11"/>
       <c r="AL52" s="11"/>
-      <c r="AM52" s="232"/>
+      <c r="AM52" s="101"/>
       <c r="AN52" s="11"/>
       <c r="AO52" s="11"/>
       <c r="AP52" s="11"/>
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
       <c r="AS52" s="11"/>
-      <c r="AT52" s="232"/>
+      <c r="AT52" s="101"/>
       <c r="AU52" s="11"/>
       <c r="AV52" s="11"/>
       <c r="AW52" s="11"/>
       <c r="AX52" s="11"/>
       <c r="AY52" s="11"/>
       <c r="AZ52" s="11"/>
-      <c r="BA52" s="232"/>
+      <c r="BA52" s="101"/>
       <c r="BB52" s="11"/>
       <c r="BC52" s="11"/>
       <c r="BD52" s="11"/>
@@ -7451,69 +7460,69 @@
       <c r="CA52" s="47"/>
     </row>
     <row r="53" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="235"/>
-      <c r="B53" s="236"/>
-      <c r="C53" s="237">
+      <c r="A53" s="183"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="102">
         <v>4</v>
       </c>
-      <c r="D53" s="237" t="s">
+      <c r="D53" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="238">
+      <c r="E53" s="103">
         <v>45497</v>
       </c>
-      <c r="F53" s="238">
+      <c r="F53" s="103">
         <v>45499</v>
       </c>
-      <c r="G53" s="237">
+      <c r="G53" s="102">
         <v>3</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="239"/>
+      <c r="K53" s="104"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="239"/>
+      <c r="R53" s="104"/>
       <c r="S53" s="7"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="240"/>
-      <c r="V53" s="241"/>
-      <c r="W53" s="242"/>
+      <c r="U53" s="310"/>
+      <c r="V53" s="311"/>
+      <c r="W53" s="312"/>
       <c r="X53" s="7"/>
-      <c r="Y53" s="239"/>
+      <c r="Y53" s="104"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-      <c r="AF53" s="239"/>
+      <c r="AF53" s="104"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
-      <c r="AM53" s="239"/>
+      <c r="AM53" s="104"/>
       <c r="AN53" s="7"/>
       <c r="AO53" s="7"/>
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
       <c r="AR53" s="7"/>
       <c r="AS53" s="7"/>
-      <c r="AT53" s="239"/>
+      <c r="AT53" s="104"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="7"/>
       <c r="AW53" s="7"/>
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="7"/>
-      <c r="BA53" s="239"/>
+      <c r="BA53" s="104"/>
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
@@ -7542,69 +7551,69 @@
       <c r="CA53" s="49"/>
     </row>
     <row r="54" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="235"/>
-      <c r="B54" s="236"/>
-      <c r="C54" s="237">
+      <c r="A54" s="183"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="102">
         <v>5</v>
       </c>
-      <c r="D54" s="237" t="s">
+      <c r="D54" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="238">
+      <c r="E54" s="103">
         <v>45499</v>
       </c>
-      <c r="F54" s="238">
+      <c r="F54" s="103">
         <v>45500</v>
       </c>
-      <c r="G54" s="237">
-        <v>3</v>
+      <c r="G54" s="102">
+        <v>2</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="239"/>
+      <c r="K54" s="104"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="239"/>
+      <c r="R54" s="104"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="240"/>
-      <c r="X54" s="242"/>
-      <c r="Y54" s="239"/>
-      <c r="Z54" s="7"/>
+      <c r="W54" s="308"/>
+      <c r="X54" s="309"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="11"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="239"/>
+      <c r="AF54" s="104"/>
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
-      <c r="AM54" s="239"/>
+      <c r="AM54" s="104"/>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
       <c r="AR54" s="7"/>
       <c r="AS54" s="7"/>
-      <c r="AT54" s="239"/>
+      <c r="AT54" s="104"/>
       <c r="AU54" s="7"/>
       <c r="AV54" s="7"/>
       <c r="AW54" s="7"/>
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="7"/>
-      <c r="BA54" s="239"/>
+      <c r="BA54" s="104"/>
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
@@ -7633,73 +7642,73 @@
       <c r="CA54" s="49"/>
     </row>
     <row r="55" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="243" t="s">
+      <c r="A55" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="244" t="s">
+      <c r="B55" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="245">
+      <c r="C55" s="105">
         <v>6</v>
       </c>
-      <c r="D55" s="245" t="s">
+      <c r="D55" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="246">
+      <c r="E55" s="106">
         <v>45502</v>
       </c>
-      <c r="F55" s="246">
-        <v>45503</v>
-      </c>
-      <c r="G55" s="245">
-        <v>2</v>
+      <c r="F55" s="106">
+        <v>45504</v>
+      </c>
+      <c r="G55" s="105">
+        <v>3</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="239"/>
+      <c r="K55" s="104"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="9"/>
-      <c r="R55" s="239"/>
+      <c r="R55" s="104"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="239"/>
-      <c r="Z55" s="247"/>
-      <c r="AA55" s="247"/>
-      <c r="AB55" s="7"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="306"/>
+      <c r="AA55" s="313"/>
+      <c r="AB55" s="307"/>
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
-      <c r="AF55" s="239"/>
+      <c r="AF55" s="104"/>
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
-      <c r="AM55" s="239"/>
+      <c r="AM55" s="104"/>
       <c r="AN55" s="7"/>
       <c r="AO55" s="7"/>
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
       <c r="AS55" s="7"/>
-      <c r="AT55" s="239"/>
+      <c r="AT55" s="104"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="7"/>
       <c r="AW55" s="7"/>
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="7"/>
-      <c r="BA55" s="239"/>
+      <c r="BA55" s="104"/>
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
@@ -7728,69 +7737,69 @@
       <c r="CA55" s="49"/>
     </row>
     <row r="56" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="243"/>
-      <c r="B56" s="244"/>
-      <c r="C56" s="245">
+      <c r="A56" s="170"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="105">
         <v>7</v>
       </c>
-      <c r="D56" s="245" t="s">
+      <c r="D56" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="246">
+      <c r="E56" s="106">
         <v>45504</v>
       </c>
-      <c r="F56" s="246">
-        <v>45509</v>
-      </c>
-      <c r="G56" s="245">
-        <v>5</v>
+      <c r="F56" s="106">
+        <v>45510</v>
+      </c>
+      <c r="G56" s="105">
+        <v>6</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="239"/>
+      <c r="K56" s="104"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="239"/>
+      <c r="R56" s="104"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="239"/>
+      <c r="Y56" s="104"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
-      <c r="AB56" s="248"/>
-      <c r="AC56" s="249"/>
-      <c r="AD56" s="249"/>
-      <c r="AE56" s="250"/>
-      <c r="AF56" s="239"/>
-      <c r="AG56" s="251"/>
-      <c r="AH56" s="7"/>
+      <c r="AB56" s="172"/>
+      <c r="AC56" s="173"/>
+      <c r="AD56" s="173"/>
+      <c r="AE56" s="174"/>
+      <c r="AF56" s="104"/>
+      <c r="AG56" s="172"/>
+      <c r="AH56" s="174"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
-      <c r="AM56" s="239"/>
+      <c r="AM56" s="104"/>
       <c r="AN56" s="7"/>
       <c r="AO56" s="7"/>
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
       <c r="AS56" s="7"/>
-      <c r="AT56" s="239"/>
+      <c r="AT56" s="104"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="7"/>
       <c r="AW56" s="7"/>
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
       <c r="AZ56" s="7"/>
-      <c r="BA56" s="239"/>
+      <c r="BA56" s="104"/>
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
@@ -7819,69 +7828,69 @@
       <c r="CA56" s="49"/>
     </row>
     <row r="57" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="243"/>
-      <c r="B57" s="244"/>
-      <c r="C57" s="245">
+      <c r="A57" s="170"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="105">
         <v>9</v>
       </c>
-      <c r="D57" s="245" t="s">
+      <c r="D57" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="246">
-        <v>45510</v>
-      </c>
-      <c r="F57" s="246">
-        <v>45512</v>
-      </c>
-      <c r="G57" s="245">
+      <c r="E57" s="106">
+        <v>45511</v>
+      </c>
+      <c r="F57" s="106">
+        <v>45513</v>
+      </c>
+      <c r="G57" s="105">
         <v>3</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="239"/>
+      <c r="K57" s="104"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="239"/>
+      <c r="R57" s="104"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="239"/>
+      <c r="Y57" s="104"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="9"/>
-      <c r="AF57" s="239"/>
+      <c r="AF57" s="104"/>
       <c r="AG57" s="9"/>
-      <c r="AH57" s="129"/>
-      <c r="AI57" s="284"/>
-      <c r="AJ57" s="130"/>
-      <c r="AK57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="167"/>
+      <c r="AJ57" s="168"/>
+      <c r="AK57" s="169"/>
       <c r="AL57" s="9"/>
-      <c r="AM57" s="239"/>
+      <c r="AM57" s="104"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
       <c r="AP57" s="9"/>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
       <c r="AS57" s="7"/>
-      <c r="AT57" s="239"/>
+      <c r="AT57" s="104"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
       <c r="AW57" s="9"/>
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="7"/>
-      <c r="BA57" s="239"/>
+      <c r="BA57" s="104"/>
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
@@ -7910,69 +7919,69 @@
       <c r="CA57" s="49"/>
     </row>
     <row r="58" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="243"/>
-      <c r="B58" s="244"/>
-      <c r="C58" s="245">
+      <c r="A58" s="170"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="105">
         <v>10</v>
       </c>
-      <c r="D58" s="245" t="s">
+      <c r="D58" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="246">
-        <v>45512</v>
-      </c>
-      <c r="F58" s="246">
+      <c r="E58" s="106">
+        <v>45513</v>
+      </c>
+      <c r="F58" s="106">
         <v>45518</v>
       </c>
-      <c r="G58" s="245">
-        <v>6</v>
+      <c r="G58" s="105">
+        <v>5</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="239"/>
+      <c r="K58" s="104"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="239"/>
+      <c r="R58" s="104"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
-      <c r="Y58" s="239"/>
+      <c r="Y58" s="104"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="9"/>
-      <c r="AF58" s="239"/>
+      <c r="AF58" s="104"/>
       <c r="AG58" s="9"/>
       <c r="AH58" s="9"/>
       <c r="AI58" s="7"/>
-      <c r="AJ58" s="252"/>
-      <c r="AK58" s="253"/>
-      <c r="AL58" s="254"/>
-      <c r="AM58" s="239"/>
-      <c r="AN58" s="252"/>
-      <c r="AO58" s="253"/>
-      <c r="AP58" s="254"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="164"/>
+      <c r="AL58" s="166"/>
+      <c r="AM58" s="104"/>
+      <c r="AN58" s="164"/>
+      <c r="AO58" s="165"/>
+      <c r="AP58" s="166"/>
       <c r="AQ58" s="7"/>
       <c r="AR58" s="7"/>
       <c r="AS58" s="7"/>
-      <c r="AT58" s="239"/>
+      <c r="AT58" s="104"/>
       <c r="AU58" s="7"/>
       <c r="AV58" s="7"/>
       <c r="AW58" s="9"/>
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="7"/>
-      <c r="BA58" s="239"/>
+      <c r="BA58" s="104"/>
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="7"/>
@@ -8001,69 +8010,69 @@
       <c r="CA58" s="49"/>
     </row>
     <row r="59" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="243"/>
-      <c r="B59" s="244"/>
-      <c r="C59" s="245">
+      <c r="A59" s="170"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="105">
         <v>11</v>
       </c>
-      <c r="D59" s="245" t="s">
+      <c r="D59" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="246">
+      <c r="E59" s="106">
         <v>45519</v>
       </c>
-      <c r="F59" s="246">
+      <c r="F59" s="106">
         <v>45520</v>
       </c>
-      <c r="G59" s="245">
+      <c r="G59" s="105">
         <v>2</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="239"/>
+      <c r="K59" s="104"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="239"/>
+      <c r="R59" s="104"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="9"/>
-      <c r="Y59" s="239"/>
+      <c r="Y59" s="104"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
-      <c r="AF59" s="239"/>
+      <c r="AF59" s="104"/>
       <c r="AG59" s="9"/>
       <c r="AH59" s="9"/>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
       <c r="AK59" s="7"/>
       <c r="AL59" s="9"/>
-      <c r="AM59" s="239"/>
+      <c r="AM59" s="104"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
       <c r="AP59" s="39"/>
-      <c r="AQ59" s="255"/>
-      <c r="AR59" s="256"/>
+      <c r="AQ59" s="162"/>
+      <c r="AR59" s="163"/>
       <c r="AS59" s="7"/>
-      <c r="AT59" s="239"/>
+      <c r="AT59" s="104"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
       <c r="AW59" s="9"/>
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="7"/>
-      <c r="BA59" s="239"/>
+      <c r="BA59" s="104"/>
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="7"/>
@@ -8092,73 +8101,73 @@
       <c r="CA59" s="49"/>
     </row>
     <row r="60" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="287" t="s">
+      <c r="A60" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="289" t="s">
+      <c r="B60" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="258">
+      <c r="C60" s="108">
         <v>12</v>
       </c>
-      <c r="D60" s="257" t="s">
+      <c r="D60" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="259">
+      <c r="E60" s="109">
         <v>45521</v>
       </c>
-      <c r="F60" s="259">
+      <c r="F60" s="109">
         <v>45524</v>
       </c>
-      <c r="G60" s="258">
+      <c r="G60" s="108">
         <v>3</v>
       </c>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="285"/>
+      <c r="K60" s="126"/>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
-      <c r="R60" s="285"/>
+      <c r="R60" s="126"/>
       <c r="S60" s="38"/>
       <c r="T60" s="38"/>
       <c r="U60" s="38"/>
       <c r="V60" s="38"/>
       <c r="W60" s="38"/>
       <c r="X60" s="20"/>
-      <c r="Y60" s="285"/>
+      <c r="Y60" s="126"/>
       <c r="Z60" s="38"/>
       <c r="AA60" s="38"/>
       <c r="AB60" s="38"/>
       <c r="AC60" s="38"/>
       <c r="AD60" s="38"/>
       <c r="AE60" s="38"/>
-      <c r="AF60" s="285"/>
+      <c r="AF60" s="126"/>
       <c r="AG60" s="20"/>
       <c r="AH60" s="20"/>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
       <c r="AK60" s="38"/>
       <c r="AL60" s="20"/>
-      <c r="AM60" s="285"/>
+      <c r="AM60" s="126"/>
       <c r="AN60" s="38"/>
       <c r="AO60" s="38"/>
-      <c r="AP60" s="286"/>
+      <c r="AP60" s="127"/>
       <c r="AQ60" s="20"/>
       <c r="AR60" s="38"/>
-      <c r="AS60" s="298"/>
-      <c r="AT60" s="285"/>
-      <c r="AU60" s="296"/>
-      <c r="AV60" s="297"/>
+      <c r="AS60" s="133"/>
+      <c r="AT60" s="126"/>
+      <c r="AU60" s="144"/>
+      <c r="AV60" s="145"/>
       <c r="AW60" s="20"/>
       <c r="AX60" s="38"/>
       <c r="AY60" s="38"/>
       <c r="AZ60" s="38"/>
-      <c r="BA60" s="285"/>
+      <c r="BA60" s="126"/>
       <c r="BB60" s="38"/>
       <c r="BC60" s="38"/>
       <c r="BD60" s="38"/>
@@ -8187,69 +8196,69 @@
       <c r="CA60" s="49"/>
     </row>
     <row r="61" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="288"/>
-      <c r="B61" s="290"/>
-      <c r="C61" s="258">
+      <c r="A61" s="141"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="108">
         <v>13</v>
       </c>
-      <c r="D61" s="257" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="259">
+      <c r="D61" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="109">
         <v>45524</v>
       </c>
-      <c r="F61" s="259">
+      <c r="F61" s="109">
         <v>45525</v>
       </c>
-      <c r="G61" s="258">
+      <c r="G61" s="108">
         <v>2</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
-      <c r="K61" s="260"/>
+      <c r="K61" s="110"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="20"/>
-      <c r="R61" s="260"/>
+      <c r="R61" s="110"/>
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
-      <c r="Y61" s="260"/>
+      <c r="Y61" s="110"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="38"/>
       <c r="AC61" s="38"/>
       <c r="AD61" s="38"/>
       <c r="AE61" s="38"/>
-      <c r="AF61" s="260"/>
+      <c r="AF61" s="110"/>
       <c r="AG61" s="38"/>
       <c r="AH61" s="38"/>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="20"/>
       <c r="AK61" s="20"/>
       <c r="AL61" s="20"/>
-      <c r="AM61" s="260"/>
+      <c r="AM61" s="110"/>
       <c r="AN61" s="20"/>
       <c r="AO61" s="20"/>
       <c r="AP61" s="20"/>
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
-      <c r="AS61" s="268"/>
-      <c r="AT61" s="260"/>
-      <c r="AU61" s="268"/>
-      <c r="AV61" s="299"/>
-      <c r="AW61" s="300"/>
+      <c r="AS61" s="116"/>
+      <c r="AT61" s="110"/>
+      <c r="AU61" s="116"/>
+      <c r="AV61" s="146"/>
+      <c r="AW61" s="147"/>
       <c r="AX61" s="20"/>
       <c r="AY61" s="20"/>
       <c r="AZ61" s="20"/>
-      <c r="BA61" s="260"/>
+      <c r="BA61" s="110"/>
       <c r="BB61" s="20"/>
       <c r="BC61" s="20"/>
       <c r="BD61" s="20"/>
@@ -8278,77 +8287,77 @@
       <c r="CA61" s="49"/>
     </row>
     <row r="62" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="261" t="s">
+      <c r="A62" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="262" t="s">
+      <c r="B62" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="263">
+      <c r="C62" s="111">
         <v>14</v>
       </c>
-      <c r="D62" s="264" t="s">
+      <c r="D62" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="265">
+      <c r="E62" s="113">
         <v>45526</v>
       </c>
-      <c r="F62" s="265">
+      <c r="F62" s="113">
         <v>45528</v>
       </c>
-      <c r="G62" s="263">
+      <c r="G62" s="111">
         <v>3</v>
       </c>
-      <c r="H62" s="266"/>
-      <c r="I62" s="266"/>
-      <c r="J62" s="266"/>
-      <c r="K62" s="267"/>
-      <c r="L62" s="266"/>
-      <c r="M62" s="266"/>
-      <c r="N62" s="266"/>
-      <c r="O62" s="266"/>
-      <c r="P62" s="266"/>
-      <c r="Q62" s="266"/>
-      <c r="R62" s="267"/>
-      <c r="S62" s="266"/>
-      <c r="T62" s="266"/>
-      <c r="U62" s="266"/>
-      <c r="V62" s="266"/>
-      <c r="W62" s="266"/>
-      <c r="X62" s="266"/>
-      <c r="Y62" s="267"/>
-      <c r="Z62" s="266"/>
-      <c r="AA62" s="266"/>
-      <c r="AB62" s="266"/>
-      <c r="AC62" s="268"/>
-      <c r="AD62" s="268"/>
-      <c r="AE62" s="268"/>
-      <c r="AF62" s="267"/>
-      <c r="AG62" s="268"/>
-      <c r="AH62" s="268"/>
-      <c r="AI62" s="268"/>
-      <c r="AJ62" s="268"/>
-      <c r="AK62" s="268"/>
-      <c r="AL62" s="268"/>
-      <c r="AM62" s="267"/>
-      <c r="AN62" s="268"/>
-      <c r="AO62" s="268"/>
-      <c r="AP62" s="268"/>
-      <c r="AQ62" s="268"/>
-      <c r="AR62" s="268"/>
-      <c r="AS62" s="268"/>
-      <c r="AT62" s="267"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="115"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="114"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="114"/>
+      <c r="T62" s="114"/>
+      <c r="U62" s="114"/>
+      <c r="V62" s="114"/>
+      <c r="W62" s="114"/>
+      <c r="X62" s="114"/>
+      <c r="Y62" s="115"/>
+      <c r="Z62" s="114"/>
+      <c r="AA62" s="114"/>
+      <c r="AB62" s="114"/>
+      <c r="AC62" s="116"/>
+      <c r="AD62" s="116"/>
+      <c r="AE62" s="116"/>
+      <c r="AF62" s="115"/>
+      <c r="AG62" s="116"/>
+      <c r="AH62" s="116"/>
+      <c r="AI62" s="116"/>
+      <c r="AJ62" s="116"/>
+      <c r="AK62" s="116"/>
+      <c r="AL62" s="116"/>
+      <c r="AM62" s="115"/>
+      <c r="AN62" s="116"/>
+      <c r="AO62" s="116"/>
+      <c r="AP62" s="116"/>
+      <c r="AQ62" s="116"/>
+      <c r="AR62" s="116"/>
+      <c r="AS62" s="116"/>
+      <c r="AT62" s="115"/>
       <c r="AU62" s="9"/>
       <c r="AV62" s="9"/>
       <c r="AW62" s="9"/>
-      <c r="AX62" s="269"/>
-      <c r="AY62" s="270"/>
-      <c r="AZ62" s="301"/>
-      <c r="BA62" s="267"/>
-      <c r="BB62" s="266"/>
-      <c r="BC62" s="266"/>
-      <c r="BD62" s="266"/>
-      <c r="BE62" s="266"/>
+      <c r="AX62" s="154"/>
+      <c r="AY62" s="155"/>
+      <c r="AZ62" s="156"/>
+      <c r="BA62" s="115"/>
+      <c r="BB62" s="114"/>
+      <c r="BC62" s="114"/>
+      <c r="BD62" s="114"/>
+      <c r="BE62" s="114"/>
       <c r="BF62" s="15"/>
       <c r="BG62" s="49"/>
       <c r="BH62" s="50"/>
@@ -8373,21 +8382,21 @@
       <c r="CA62" s="49"/>
     </row>
     <row r="63" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="271"/>
-      <c r="B63" s="272"/>
-      <c r="C63" s="273">
+      <c r="A63" s="149"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="117">
         <v>15</v>
       </c>
-      <c r="D63" s="274" t="s">
+      <c r="D63" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="275">
+      <c r="E63" s="119">
         <v>45528</v>
       </c>
-      <c r="F63" s="275">
+      <c r="F63" s="119">
         <v>45530</v>
       </c>
-      <c r="G63" s="273">
+      <c r="G63" s="117">
         <v>2</v>
       </c>
       <c r="H63" s="9"/>
@@ -8434,9 +8443,9 @@
       <c r="AW63" s="9"/>
       <c r="AX63" s="9"/>
       <c r="AY63" s="9"/>
-      <c r="AZ63" s="303"/>
+      <c r="AZ63" s="135"/>
       <c r="BA63" s="88"/>
-      <c r="BB63" s="302"/>
+      <c r="BB63" s="134"/>
       <c r="BC63" s="20"/>
       <c r="BD63" s="20"/>
       <c r="BE63" s="20"/>
@@ -8464,261 +8473,261 @@
       <c r="CA63" s="49"/>
     </row>
     <row r="64" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="271"/>
-      <c r="B64" s="272"/>
-      <c r="C64" s="291">
+      <c r="A64" s="149"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="128">
         <v>16</v>
       </c>
-      <c r="D64" s="292" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" s="293">
+      <c r="D64" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="130">
         <v>45530</v>
       </c>
-      <c r="F64" s="293">
+      <c r="F64" s="130">
         <v>45531</v>
       </c>
-      <c r="G64" s="291">
+      <c r="G64" s="128">
         <v>2</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
-      <c r="K64" s="260"/>
+      <c r="K64" s="110"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
       <c r="Q64" s="20"/>
-      <c r="R64" s="260"/>
+      <c r="R64" s="110"/>
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
-      <c r="Y64" s="260"/>
+      <c r="Y64" s="110"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
       <c r="AE64" s="20"/>
-      <c r="AF64" s="260"/>
+      <c r="AF64" s="110"/>
       <c r="AG64" s="20"/>
       <c r="AH64" s="20"/>
       <c r="AI64" s="20"/>
       <c r="AJ64" s="38"/>
       <c r="AK64" s="38"/>
       <c r="AL64" s="38"/>
-      <c r="AM64" s="260"/>
+      <c r="AM64" s="110"/>
       <c r="AN64" s="38"/>
       <c r="AO64" s="38"/>
       <c r="AP64" s="38"/>
       <c r="AQ64" s="38"/>
       <c r="AR64" s="38"/>
       <c r="AS64" s="38"/>
-      <c r="AT64" s="260"/>
+      <c r="AT64" s="110"/>
       <c r="AU64" s="38"/>
       <c r="AV64" s="38"/>
       <c r="AW64" s="20"/>
       <c r="AX64" s="20"/>
       <c r="AY64" s="20"/>
       <c r="AZ64" s="20"/>
-      <c r="BA64" s="260"/>
-      <c r="BB64" s="219"/>
-      <c r="BC64" s="220"/>
+      <c r="BA64" s="110"/>
+      <c r="BB64" s="157"/>
+      <c r="BC64" s="158"/>
       <c r="BD64" s="38"/>
       <c r="BE64" s="38"/>
       <c r="BF64" s="21"/>
-      <c r="BG64" s="294"/>
-      <c r="BH64" s="295"/>
-      <c r="BI64" s="294"/>
-      <c r="BJ64" s="294"/>
-      <c r="BK64" s="294"/>
-      <c r="BL64" s="294"/>
-      <c r="BM64" s="294"/>
-      <c r="BN64" s="294"/>
-      <c r="BO64" s="295"/>
-      <c r="BP64" s="294"/>
-      <c r="BQ64" s="294"/>
-      <c r="BR64" s="294"/>
-      <c r="BS64" s="294"/>
-      <c r="BT64" s="294"/>
-      <c r="BU64" s="294"/>
-      <c r="BV64" s="295"/>
-      <c r="BW64" s="294"/>
-      <c r="BX64" s="294"/>
-      <c r="BY64" s="294"/>
-      <c r="BZ64" s="294"/>
-      <c r="CA64" s="294"/>
+      <c r="BG64" s="131"/>
+      <c r="BH64" s="132"/>
+      <c r="BI64" s="131"/>
+      <c r="BJ64" s="131"/>
+      <c r="BK64" s="131"/>
+      <c r="BL64" s="131"/>
+      <c r="BM64" s="131"/>
+      <c r="BN64" s="131"/>
+      <c r="BO64" s="132"/>
+      <c r="BP64" s="131"/>
+      <c r="BQ64" s="131"/>
+      <c r="BR64" s="131"/>
+      <c r="BS64" s="131"/>
+      <c r="BT64" s="131"/>
+      <c r="BU64" s="131"/>
+      <c r="BV64" s="132"/>
+      <c r="BW64" s="131"/>
+      <c r="BX64" s="131"/>
+      <c r="BY64" s="131"/>
+      <c r="BZ64" s="131"/>
+      <c r="CA64" s="131"/>
     </row>
     <row r="65" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="271"/>
-      <c r="B65" s="272"/>
-      <c r="C65" s="291">
+      <c r="A65" s="149"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="128">
         <v>17</v>
       </c>
-      <c r="D65" s="292" t="s">
+      <c r="D65" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="293">
+      <c r="E65" s="130">
         <v>45532</v>
       </c>
-      <c r="F65" s="293">
+      <c r="F65" s="130">
         <v>45534</v>
       </c>
-      <c r="G65" s="291">
+      <c r="G65" s="128">
         <v>3</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
-      <c r="K65" s="260"/>
+      <c r="K65" s="110"/>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
       <c r="Q65" s="20"/>
-      <c r="R65" s="260"/>
+      <c r="R65" s="110"/>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
-      <c r="Y65" s="260"/>
+      <c r="Y65" s="110"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
       <c r="AE65" s="20"/>
-      <c r="AF65" s="260"/>
+      <c r="AF65" s="110"/>
       <c r="AG65" s="20"/>
       <c r="AH65" s="20"/>
       <c r="AI65" s="20"/>
       <c r="AJ65" s="38"/>
       <c r="AK65" s="38"/>
       <c r="AL65" s="38"/>
-      <c r="AM65" s="260"/>
+      <c r="AM65" s="110"/>
       <c r="AN65" s="38"/>
       <c r="AO65" s="38"/>
       <c r="AP65" s="38"/>
       <c r="AQ65" s="38"/>
       <c r="AR65" s="38"/>
       <c r="AS65" s="38"/>
-      <c r="AT65" s="260"/>
+      <c r="AT65" s="110"/>
       <c r="AU65" s="38"/>
       <c r="AV65" s="38"/>
       <c r="AW65" s="20"/>
       <c r="AX65" s="20"/>
       <c r="AY65" s="20"/>
       <c r="AZ65" s="20"/>
-      <c r="BA65" s="260"/>
+      <c r="BA65" s="110"/>
       <c r="BB65" s="20"/>
       <c r="BC65" s="20"/>
-      <c r="BD65" s="304"/>
-      <c r="BE65" s="305"/>
-      <c r="BF65" s="306"/>
-      <c r="BG65" s="294"/>
-      <c r="BH65" s="295"/>
-      <c r="BI65" s="294"/>
-      <c r="BJ65" s="294"/>
-      <c r="BK65" s="294"/>
-      <c r="BL65" s="294"/>
-      <c r="BM65" s="294"/>
-      <c r="BN65" s="294"/>
-      <c r="BO65" s="295"/>
-      <c r="BP65" s="294"/>
-      <c r="BQ65" s="294"/>
-      <c r="BR65" s="294"/>
-      <c r="BS65" s="294"/>
-      <c r="BT65" s="294"/>
-      <c r="BU65" s="294"/>
-      <c r="BV65" s="295"/>
-      <c r="BW65" s="294"/>
-      <c r="BX65" s="294"/>
-      <c r="BY65" s="294"/>
-      <c r="BZ65" s="294"/>
-      <c r="CA65" s="294"/>
+      <c r="BD65" s="159"/>
+      <c r="BE65" s="160"/>
+      <c r="BF65" s="161"/>
+      <c r="BG65" s="131"/>
+      <c r="BH65" s="132"/>
+      <c r="BI65" s="131"/>
+      <c r="BJ65" s="131"/>
+      <c r="BK65" s="131"/>
+      <c r="BL65" s="131"/>
+      <c r="BM65" s="131"/>
+      <c r="BN65" s="131"/>
+      <c r="BO65" s="132"/>
+      <c r="BP65" s="131"/>
+      <c r="BQ65" s="131"/>
+      <c r="BR65" s="131"/>
+      <c r="BS65" s="131"/>
+      <c r="BT65" s="131"/>
+      <c r="BU65" s="131"/>
+      <c r="BV65" s="132"/>
+      <c r="BW65" s="131"/>
+      <c r="BX65" s="131"/>
+      <c r="BY65" s="131"/>
+      <c r="BZ65" s="131"/>
+      <c r="CA65" s="131"/>
     </row>
     <row r="66" spans="1:79" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="276"/>
-      <c r="B66" s="277"/>
-      <c r="C66" s="278">
+      <c r="A66" s="150"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="120">
         <v>18</v>
       </c>
-      <c r="D66" s="279" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="280">
+      <c r="D66" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="122">
         <v>45536</v>
       </c>
-      <c r="F66" s="280">
+      <c r="F66" s="122">
         <v>45540</v>
       </c>
-      <c r="G66" s="278">
+      <c r="G66" s="120">
         <v>4</v>
       </c>
-      <c r="H66" s="281"/>
-      <c r="I66" s="281"/>
-      <c r="J66" s="281"/>
-      <c r="K66" s="282"/>
-      <c r="L66" s="281"/>
-      <c r="M66" s="281"/>
-      <c r="N66" s="281"/>
-      <c r="O66" s="281"/>
-      <c r="P66" s="281"/>
-      <c r="Q66" s="281"/>
-      <c r="R66" s="282"/>
-      <c r="S66" s="281"/>
-      <c r="T66" s="281"/>
-      <c r="U66" s="281"/>
-      <c r="V66" s="281"/>
-      <c r="W66" s="281"/>
-      <c r="X66" s="281"/>
-      <c r="Y66" s="282"/>
-      <c r="Z66" s="281"/>
-      <c r="AA66" s="281"/>
-      <c r="AB66" s="281"/>
-      <c r="AC66" s="281"/>
-      <c r="AD66" s="281"/>
-      <c r="AE66" s="281"/>
-      <c r="AF66" s="282"/>
-      <c r="AG66" s="281"/>
-      <c r="AH66" s="281"/>
-      <c r="AI66" s="281"/>
-      <c r="AJ66" s="281"/>
-      <c r="AK66" s="281"/>
-      <c r="AL66" s="281"/>
-      <c r="AM66" s="282"/>
-      <c r="AN66" s="283"/>
-      <c r="AO66" s="283"/>
-      <c r="AP66" s="283"/>
-      <c r="AQ66" s="283"/>
-      <c r="AR66" s="283"/>
-      <c r="AS66" s="283"/>
-      <c r="AT66" s="282"/>
-      <c r="AU66" s="283"/>
-      <c r="AV66" s="283"/>
-      <c r="AW66" s="283"/>
-      <c r="AX66" s="283"/>
-      <c r="AY66" s="283"/>
-      <c r="AZ66" s="283"/>
-      <c r="BA66" s="282"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="123"/>
+      <c r="M66" s="123"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="123"/>
+      <c r="P66" s="123"/>
+      <c r="Q66" s="123"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="123"/>
+      <c r="T66" s="123"/>
+      <c r="U66" s="123"/>
+      <c r="V66" s="123"/>
+      <c r="W66" s="123"/>
+      <c r="X66" s="123"/>
+      <c r="Y66" s="124"/>
+      <c r="Z66" s="123"/>
+      <c r="AA66" s="123"/>
+      <c r="AB66" s="123"/>
+      <c r="AC66" s="123"/>
+      <c r="AD66" s="123"/>
+      <c r="AE66" s="123"/>
+      <c r="AF66" s="124"/>
+      <c r="AG66" s="123"/>
+      <c r="AH66" s="123"/>
+      <c r="AI66" s="123"/>
+      <c r="AJ66" s="123"/>
+      <c r="AK66" s="123"/>
+      <c r="AL66" s="123"/>
+      <c r="AM66" s="124"/>
+      <c r="AN66" s="125"/>
+      <c r="AO66" s="125"/>
+      <c r="AP66" s="125"/>
+      <c r="AQ66" s="125"/>
+      <c r="AR66" s="125"/>
+      <c r="AS66" s="125"/>
+      <c r="AT66" s="124"/>
+      <c r="AU66" s="125"/>
+      <c r="AV66" s="125"/>
+      <c r="AW66" s="125"/>
+      <c r="AX66" s="125"/>
+      <c r="AY66" s="125"/>
+      <c r="AZ66" s="125"/>
+      <c r="BA66" s="124"/>
       <c r="BB66" s="51"/>
       <c r="BC66" s="51"/>
       <c r="BD66" s="51"/>
       <c r="BE66" s="51"/>
-      <c r="BF66" s="307"/>
+      <c r="BF66" s="136"/>
       <c r="BG66" s="66"/>
       <c r="BH66" s="52"/>
-      <c r="BI66" s="308"/>
-      <c r="BJ66" s="309"/>
-      <c r="BK66" s="310"/>
+      <c r="BI66" s="137"/>
+      <c r="BJ66" s="138"/>
+      <c r="BK66" s="139"/>
       <c r="BL66" s="51"/>
       <c r="BM66" s="51"/>
       <c r="BN66" s="51"/>
@@ -8740,61 +8749,38 @@
     <row r="68" spans="1:79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="AU60:AV60"/>
-    <mergeCell ref="AV61:AW61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="AX62:AZ62"/>
-    <mergeCell ref="BB64:BC64"/>
-    <mergeCell ref="BD65:BF65"/>
-    <mergeCell ref="AQ59:AR59"/>
-    <mergeCell ref="AN58:AP58"/>
-    <mergeCell ref="AJ58:AL58"/>
-    <mergeCell ref="AH57:AJ57"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB56:AE56"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="BF49:BG49"/>
-    <mergeCell ref="BI50:BK50"/>
-    <mergeCell ref="BL51:BM51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="AU45:AW45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BB47:BC47"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP43:AQ43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="AA40:AE40"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AQ33:AR33"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
+  <mergeCells count="100">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:AB1"/>
+    <mergeCell ref="AC1:BF1"/>
+    <mergeCell ref="BG1:CA1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AQ14:AS14"/>
     <mergeCell ref="BB18:BD18"/>
     <mergeCell ref="BE19:BF19"/>
     <mergeCell ref="A20:A22"/>
@@ -8809,37 +8795,61 @@
     <mergeCell ref="AU15:AV15"/>
     <mergeCell ref="AV16:AW16"/>
     <mergeCell ref="AX17:AY17"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AQ14:AS14"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:AB1"/>
-    <mergeCell ref="AC1:BF1"/>
-    <mergeCell ref="BG1:CA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP43:AQ43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="AA40:AE40"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AU45:AW45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="BB47:BC47"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="BF49:BG49"/>
+    <mergeCell ref="BI50:BK50"/>
+    <mergeCell ref="BL51:BM51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="AB56:AE56"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI57:AK57"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AX62:AZ62"/>
+    <mergeCell ref="BB64:BC64"/>
+    <mergeCell ref="BD65:BF65"/>
+    <mergeCell ref="AQ59:AR59"/>
+    <mergeCell ref="AN58:AP58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="AU60:AV60"/>
+    <mergeCell ref="AV61:AW61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
